--- a/Projects/SANOFISA/Data/Template.xlsx
+++ b/Projects/SANOFISA/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,20 +16,20 @@
     <sheet name="Primary Shelf_Location" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$17</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$G$17</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$9</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$17</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">MSL!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">MSL!$A$2:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">MSL!$A$2:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">MSL!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$17</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$17</definedName>
@@ -48,6 +48,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Primary_Brand_Blocking!$A$2:$G$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
@@ -58,34 +59,35 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$L$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$L$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$17</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$9</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$9</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$9</definedName>
@@ -113,6 +115,7 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$9</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$9</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$9</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -124,376 +127,404 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="129">
   <si>
-    <t>KPI Name</t>
+    <t xml:space="preserve">KPI Name</t>
   </si>
   <si>
-    <t>KPI Group</t>
+    <t xml:space="preserve">KPI Group</t>
   </si>
   <si>
-    <t>KPI Type</t>
+    <t xml:space="preserve">KPI Type</t>
   </si>
   <si>
-    <t>Tested Group</t>
+    <t xml:space="preserve">Tested Group</t>
   </si>
   <si>
-    <t>Template Group</t>
+    <t xml:space="preserve">Template Group</t>
   </si>
   <si>
-    <t>Sheet</t>
+    <t xml:space="preserve">Sheet</t>
   </si>
   <si>
-    <t>SCORE</t>
+    <t xml:space="preserve">SCORE</t>
   </si>
   <si>
-    <t>POSM Availability Primary</t>
+    <t xml:space="preserve">POSM Availability Primary</t>
   </si>
   <si>
-    <t>Primary Shelf</t>
+    <t xml:space="preserve">Primary Shelf</t>
   </si>
   <si>
-    <t>Product Availability Per SKU</t>
+    <t xml:space="preserve">Product Availability Per SKU</t>
   </si>
   <si>
-    <t>Primary&amp;Secondary_POSM</t>
+    <t xml:space="preserve">Primary&amp;Secondary_POSM</t>
   </si>
   <si>
-    <t>numeric</t>
+    <t xml:space="preserve">numeric</t>
   </si>
   <si>
-    <t>Product Minimum Facings Primary</t>
+    <t xml:space="preserve">Product Minimum Facings Primary</t>
   </si>
   <si>
-    <t>Primary&amp;Secondary_Facings</t>
+    <t xml:space="preserve">Primary&amp;Secondary_Facings</t>
   </si>
   <si>
-    <t>Blocked Together</t>
+    <t xml:space="preserve">Blocked Together</t>
   </si>
   <si>
-    <t>Blocked Together Per Brand</t>
+    <t xml:space="preserve">Blocked Together Per Brand</t>
   </si>
   <si>
-    <t>Primary_Brand_Blocking</t>
+    <t xml:space="preserve">Primary_Brand_Blocking</t>
   </si>
   <si>
-    <t>POSM Availability Secondary</t>
+    <t xml:space="preserve">POSM Availability Secondary</t>
   </si>
   <si>
-    <t>Secondary Shelf</t>
+    <t xml:space="preserve">Secondary Shelf</t>
   </si>
   <si>
-    <t>Product Minimum Facings Secondary</t>
+    <t xml:space="preserve">Product Minimum Facings Secondary</t>
   </si>
   <si>
-    <t>MSL Compliance</t>
+    <t xml:space="preserve">MSL Compliance</t>
   </si>
   <si>
-    <t>MSL</t>
+    <t xml:space="preserve">MSL</t>
   </si>
   <si>
-    <t>Perfect Store</t>
+    <t xml:space="preserve">Perfect Store</t>
   </si>
   <si>
-    <t>Primary Shelf Compliance</t>
+    <t xml:space="preserve">Primary Shelf Compliance</t>
   </si>
   <si>
-    <t>Secondary Shelf Compliance</t>
+    <t xml:space="preserve">Secondary Shelf Compliance</t>
   </si>
   <si>
-    <t>Perfect Store Compliance</t>
+    <t xml:space="preserve">Perfect Store Compliance</t>
   </si>
   <si>
-    <t>Sum of KPIs in Group</t>
+    <t xml:space="preserve">Sum of KPIs in Group</t>
   </si>
   <si>
-    <t>store type</t>
+    <t xml:space="preserve">store type</t>
   </si>
   <si>
-    <t>Product Name</t>
+    <t xml:space="preserve">Product Name</t>
   </si>
   <si>
-    <t>Product EAN Code</t>
+    <t xml:space="preserve">Product EAN Code</t>
   </si>
   <si>
-    <t>Brand</t>
+    <t xml:space="preserve">Brand</t>
   </si>
   <si>
-    <t>Category</t>
+    <t xml:space="preserve">Category</t>
   </si>
   <si>
-    <t>Points</t>
+    <t xml:space="preserve">Points</t>
   </si>
   <si>
-    <t>B</t>
+    <t xml:space="preserve">Category 1</t>
   </si>
   <si>
-    <t>G</t>
+    <t xml:space="preserve">Category 2</t>
   </si>
   <si>
-    <t>D</t>
+    <t xml:space="preserve">Category 3</t>
   </si>
   <si>
-    <t>Lanzor 15 mg, 30 capsules</t>
+    <t xml:space="preserve">Category 4</t>
   </si>
   <si>
-    <t>03582910072157</t>
+    <t xml:space="preserve">Lanzor 15 mg, 30 capsules</t>
   </si>
   <si>
-    <t>Lanzor</t>
+    <t xml:space="preserve">03582910072157</t>
   </si>
   <si>
-    <t>DH</t>
+    <t xml:space="preserve">Lanzor</t>
   </si>
   <si>
-    <t>LANZOR 30 MG CG BL 15 </t>
+    <t xml:space="preserve">DH</t>
   </si>
   <si>
-    <t>06285088000720</t>
+    <t xml:space="preserve">LANZOR 30 MG CG BL 15 </t>
   </si>
   <si>
-    <t>DULCOLAXSUCTA/ 30/5MG BLI KSA</t>
+    <t xml:space="preserve">06285088000720</t>
   </si>
   <si>
-    <t>06285079000258</t>
+    <t xml:space="preserve">DULCOLAXSUCTA/ 30/5MG BLI KSA</t>
   </si>
   <si>
-    <t>Dulcolax</t>
+    <t xml:space="preserve">06285079000258</t>
   </si>
   <si>
-    <t>Enterogermina Susp 10</t>
+    <t xml:space="preserve">Dulcolax</t>
   </si>
   <si>
-    <t>Enterogermina</t>
+    <t xml:space="preserve">Enterogermina Susp 10</t>
   </si>
   <si>
-    <t>Enterogermina Susp 20</t>
+    <t xml:space="preserve">Enterogermina</t>
   </si>
   <si>
-    <t>MUCOSOLVAN SYRUP/100ML 1/30MG/5ML CHLD.</t>
+    <t xml:space="preserve">Enterogermina Susp 20</t>
   </si>
   <si>
-    <t>06285079000272</t>
+    <t xml:space="preserve">MUCOSOLVAN SYRUP/100ML 1/30MG/5ML CHLD.</t>
   </si>
   <si>
-    <t>Mucosolvan</t>
+    <t xml:space="preserve">06285079000272</t>
   </si>
   <si>
-    <t>Cough &amp; Cold</t>
+    <t xml:space="preserve">Mucosolvan</t>
   </si>
   <si>
-    <t>Bronchicare Plus 1.5 gm Syrup 150 ml</t>
+    <t xml:space="preserve">Cough &amp; Cold</t>
   </si>
   <si>
-    <t>Bronchicare</t>
+    <t xml:space="preserve">Bronchicare Plus 1.5 gm Syrup 150 ml</t>
   </si>
   <si>
-    <t>Bronchicare Ivy 0.7 gm Syrup 100 ml</t>
+    <t xml:space="preserve">Bronchicare</t>
   </si>
   <si>
-    <t>GERIATRIC PHAR.CAPSU/ 30/40MG KSA</t>
+    <t xml:space="preserve">Bronchicare Ivy 0.7 gm Syrup 100 ml</t>
   </si>
   <si>
-    <t>06285079000326</t>
+    <t xml:space="preserve">GERIATRIC PHAR.CAPSU/ 30/40MG KSA</t>
   </si>
   <si>
-    <t>Pharmaton</t>
+    <t xml:space="preserve">06285079000326</t>
   </si>
   <si>
-    <t>MVS</t>
+    <t xml:space="preserve">Pharmaton</t>
   </si>
   <si>
-    <t>GERIATRIC PHAR.CAPSU/ 100/40MG</t>
+    <t xml:space="preserve">MVS</t>
   </si>
   <si>
-    <t>06285079000357</t>
+    <t xml:space="preserve">GERIATRIC PHAR.CAPSU/ 100/40MG</t>
   </si>
   <si>
-    <t>Life Mark with Iron By Omnivit 300ml Syrup</t>
+    <t xml:space="preserve">06285079000357</t>
   </si>
   <si>
-    <t>NONE</t>
+    <t xml:space="preserve">Life Mark with Iron By Omnivit 300ml Syrup</t>
   </si>
   <si>
-    <t>Life Mark</t>
+    <t xml:space="preserve">NONE</t>
   </si>
   <si>
-    <t>Life Mark By Omnivit 300ml Syrup</t>
+    <t xml:space="preserve">Life Mark</t>
   </si>
   <si>
-    <t>BUSCOPAN SUCTA/ 20/10MG KSA</t>
+    <t xml:space="preserve">Life Mark By Omnivit 300ml Syrup</t>
   </si>
   <si>
-    <t>06285079000524</t>
+    <t xml:space="preserve">BUSCOPAN SUCTA/ 20/10MG KSA</t>
   </si>
   <si>
-    <t>Buscopan</t>
+    <t xml:space="preserve">06285079000524</t>
   </si>
   <si>
-    <t>Pain</t>
+    <t xml:space="preserve">Buscopan</t>
   </si>
   <si>
-    <t>ALLEGR/TELF180MGFTBL1X15SA</t>
+    <t xml:space="preserve">Pain</t>
   </si>
   <si>
-    <t>06285088001260</t>
+    <t xml:space="preserve">ALLEGR/TELF180MGFTBL1X15SA</t>
   </si>
   <si>
-    <t>Telfast</t>
+    <t xml:space="preserve">06285088001260</t>
   </si>
   <si>
-    <t>Allergy</t>
+    <t xml:space="preserve">Telfast</t>
   </si>
   <si>
-    <t>ALLEGR/TELF120MGFTBL1X15SA</t>
+    <t xml:space="preserve">Allergy</t>
   </si>
   <si>
-    <t>06285088001277</t>
+    <t xml:space="preserve">ALLEGR/TELF120MGFTBL1X15SA</t>
   </si>
   <si>
-    <t>Ignore empty</t>
+    <t xml:space="preserve">06285088001277</t>
   </si>
   <si>
-    <t>Enterogermina Susp 10, Enterogermina Susp 20</t>
+    <t xml:space="preserve">Ignore empty</t>
   </si>
   <si>
-    <t>3582910032373,3582910034988</t>
+    <t xml:space="preserve">Enterogermina Susp 10, Enterogermina Susp 20</t>
   </si>
   <si>
-    <t>Bronchicare Plus 1.5 gm Syrup 150 ml, Bronchicare Ivy 0.7 gm Syrup 100 ml</t>
+    <t xml:space="preserve">3582910032373,3582910034988</t>
   </si>
   <si>
-    <t>201513619,201513612</t>
+    <t xml:space="preserve">Bronchicare Plus 1.5 gm Syrup 150 ml, Bronchicare Ivy 0.7 gm Syrup 100 ml</t>
   </si>
   <si>
-    <t>GERIATRIC PHAR.CAPSU/ 30/40MG KSA, GERIATRIC PHAR.CAPSU/ 100/40MG</t>
+    <t xml:space="preserve">201513619,201513612</t>
   </si>
   <si>
-    <t>06285079000326,06285079000357</t>
+    <t xml:space="preserve">GERIATRIC PHAR.CAPSU/ 30/40MG KSA, GERIATRIC PHAR.CAPSU/ 100/40MG</t>
   </si>
   <si>
-    <t>ALLEGR/TELF180MGFTBL1X15SA, ALLEGR/TELF120MGFTBL1X15SA</t>
+    <t xml:space="preserve">06285079000326,06285079000357</t>
   </si>
   <si>
-    <t>06285088001260,06285088001277</t>
+    <t xml:space="preserve">ALLEGR/TELF180MGFTBL1X15SA, ALLEGR/TELF120MGFTBL1X15SA</t>
   </si>
   <si>
-    <t>KSA_BRONCHICARE_CTU ( or FSU ) </t>
+    <t xml:space="preserve">06285088001260,06285088001277</t>
   </si>
   <si>
-    <t>KSA_BRO_017_9001</t>
+    <t xml:space="preserve">KSA_BRONCHICARE_CTU ( or FSU ) </t>
   </si>
   <si>
-    <t>CCF</t>
+    <t xml:space="preserve">KSA_BRO_017_9001</t>
   </si>
   <si>
-    <t>KSA_BRONCHICARE_FSU (or CTU )</t>
+    <t xml:space="preserve">CCF</t>
   </si>
   <si>
-    <t>KSA_BRO_017_9002</t>
+    <t xml:space="preserve">KSA_BRONCHICARE_FSU (or CTU )</t>
   </si>
   <si>
-    <t>KSA_Bronchicare_ST</t>
+    <t xml:space="preserve">KSA_BRO_017_9002</t>
   </si>
   <si>
-    <t>KSA_BRO_017_9003</t>
+    <t xml:space="preserve">KSA_Bronchicare_ST</t>
   </si>
   <si>
-    <t>KSA_MUCOSOLVAN_CTU ( or FSU ) </t>
+    <t xml:space="preserve">KSA_BRO_017_9003</t>
   </si>
   <si>
-    <t>KSA_MUCO_017_9001</t>
+    <t xml:space="preserve">KSA_MUCOSOLVAN_CTU ( or FSU ) </t>
   </si>
   <si>
-    <t>KSA_MUCOSOLVAN_FSU (or CTU )</t>
+    <t xml:space="preserve">KSA_MUCO_017_9001</t>
   </si>
   <si>
-    <t>KSA_MUCO_017_9002</t>
+    <t xml:space="preserve">KSA_MUCOSOLVAN_FSU (or CTU )</t>
   </si>
   <si>
-    <t>KSA_MUCOSOLVAN_ST</t>
+    <t xml:space="preserve">KSA_MUCO_017_9002</t>
   </si>
   <si>
-    <t>KSA_MUCO_017_9003</t>
+    <t xml:space="preserve">KSA_MUCOSOLVAN_ST</t>
   </si>
   <si>
-    <t>KSA_PHARMATON_CTU ( or FSU ) </t>
+    <t xml:space="preserve">KSA_MUCO_017_9003</t>
   </si>
   <si>
-    <t>KSA_PHAR_017_9002</t>
+    <t xml:space="preserve">KSA_PHARMATON_CTU ( or FSU ) </t>
   </si>
   <si>
-    <t>Pharmaton </t>
+    <t xml:space="preserve">KSA_PHAR_017_9002</t>
   </si>
   <si>
-    <t>VMS</t>
+    <t xml:space="preserve">Pharmaton </t>
   </si>
   <si>
-    <t>KSA_PHARMATON_FSU (or CTU )</t>
+    <t xml:space="preserve">VMS</t>
   </si>
   <si>
-    <t>KSA_PHAR_017_9005</t>
+    <t xml:space="preserve">KSA_PHARMATON_FSU (or CTU )</t>
   </si>
   <si>
-    <t>KSA_PHARMATON_ST</t>
+    <t xml:space="preserve">KSA_PHAR_017_9005</t>
   </si>
   <si>
-    <t>KSA_PHAR_017_9006</t>
+    <t xml:space="preserve">KSA_PHARMATON_ST</t>
   </si>
   <si>
-    <t>3582910032373</t>
+    <t xml:space="preserve">KSA_PHAR_017_9006</t>
   </si>
   <si>
-    <t>3582910034988</t>
+    <t xml:space="preserve">KSA-PHARMATON -FUS 3</t>
   </si>
   <si>
-    <t>201513619</t>
+    <t xml:space="preserve">KSA_PHAR_018_9002</t>
   </si>
   <si>
-    <t>201513612</t>
+    <t xml:space="preserve">KSA -Pharmaton -CTU 2</t>
   </si>
   <si>
-    <t>Bronchicare Ivy 65 mg Capsule 30</t>
+    <t xml:space="preserve">KSA_PHAR_018_9003</t>
   </si>
   <si>
-    <t>201513613</t>
+    <t xml:space="preserve">KSA_Enterogermina  _CC</t>
   </si>
   <si>
-    <t>201513614</t>
+    <t xml:space="preserve">KSA_Enterogermina_CC_001</t>
   </si>
   <si>
-    <t>SKUs</t>
+    <t xml:space="preserve">Enterogermina </t>
   </si>
   <si>
-    <t>Dis-Chem</t>
+    <t xml:space="preserve">KSA_Enterogermina  _CTU</t>
   </si>
   <si>
-    <t>Mega Pharmacies</t>
+    <t xml:space="preserve">KSA_Enterogermina_CTU_001</t>
   </si>
   <si>
-    <t>Community High Pharmacies</t>
+    <t xml:space="preserve">KSA_Enterogermina_CTU_002</t>
   </si>
   <si>
-    <t>Community Low Pharmacies</t>
+    <t xml:space="preserve">KSA_Enterogermina  -FSU</t>
   </si>
   <si>
-    <t>NBC</t>
+    <t xml:space="preserve">KSA_Enterogermina_FSU_001</t>
   </si>
   <si>
-    <t>Dispensaries</t>
+    <t xml:space="preserve">KSA_Enterogermina_GE</t>
   </si>
   <si>
-    <t>Shelf Location Compliance</t>
+    <t xml:space="preserve">KSA_Enterogermina_GE_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronchicare Ivy 65 mg Capsule 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dis-Chem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega Pharmacies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community High Pharmacies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Low Pharmacies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispensaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Location Compliance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -519,6 +550,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
@@ -532,13 +570,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -660,7 +691,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,14 +742,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFDAE3F3"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFC5E0B4"/>
+        <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -727,8 +758,14 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFC00000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -892,48 +929,20 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right style="medium"/>
-      <top/>
-      <bottom style="thin"/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -957,33 +966,37 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="110">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1003,7 +1016,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1055,23 +1068,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="11" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="13" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="14" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1079,35 +1092,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="15" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="16" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="17" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="18" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="19" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1115,8 +1128,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1127,7 +1140,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1135,11 +1148,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1163,35 +1180,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="21" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="14" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1199,27 +1208,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1231,6 +1236,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1239,43 +1252,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="21" fillId="6" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1287,39 +1284,115 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="12" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1331,7 +1404,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1344,14 +1417,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1435,19 +1509,19 @@
   </sheetPr>
   <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8947368421053"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.080971659919"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.7854251012146"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.5425101214575"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.834008097166"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,20 +1759,20 @@
   </sheetPr>
   <dimension ref="1:17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K40" activeCellId="0" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1019" min="8" style="22" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="13.9554655870445"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="53.8663967611336"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="26.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="22" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1019" min="8" style="22" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2752,7 +2826,9 @@
       <c r="I2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="0"/>
+      <c r="J2" s="35" t="s">
+        <v>36</v>
+      </c>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
@@ -3768,16 +3844,16 @@
         <v>20</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="41" t="n">
@@ -3789,7 +3865,9 @@
       <c r="I3" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="0"/>
+      <c r="J3" s="41" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
@@ -4805,16 +4883,16 @@
         <v>20</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>39</v>
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="41" t="n">
@@ -4826,7 +4904,9 @@
       <c r="I4" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="0"/>
+      <c r="J4" s="41" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
@@ -5842,16 +5922,16 @@
         <v>20</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="41" t="n">
@@ -5861,6 +5941,9 @@
         <v>1</v>
       </c>
       <c r="I5" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="41" t="n">
         <v>1</v>
       </c>
       <c r="AMF5" s="0"/>
@@ -5874,16 +5957,16 @@
         <v>20</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="38" t="n">
+        <v>46</v>
+      </c>
+      <c r="C6" s="43" t="n">
         <v>3582910032373</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="41" t="n">
@@ -5893,6 +5976,9 @@
         <v>1</v>
       </c>
       <c r="I6" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5901,16 +5987,16 @@
         <v>20</v>
       </c>
       <c r="B7" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="43" t="n">
+        <v>3582910034988</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="38" t="n">
-        <v>3582910034988</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>46</v>
-      </c>
       <c r="E7" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="41" t="n">
@@ -5920,6 +6006,9 @@
         <v>1</v>
       </c>
       <c r="I7" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5928,16 +6017,16 @@
         <v>20</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="41" t="n">
@@ -5947,6 +6036,9 @@
         <v>1</v>
       </c>
       <c r="I8" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5955,16 +6047,16 @@
         <v>20</v>
       </c>
       <c r="B9" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="44" t="n">
+        <v>201513619</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="39" t="s">
         <v>52</v>
-      </c>
-      <c r="C9" s="43" t="n">
-        <v>201513619</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>51</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="41" t="n">
@@ -5974,6 +6066,9 @@
         <v>1</v>
       </c>
       <c r="I9" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5982,16 +6077,16 @@
         <v>20</v>
       </c>
       <c r="B10" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="44" t="n">
+        <v>201513612</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="43" t="n">
-        <v>201513612</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>53</v>
-      </c>
       <c r="E10" s="39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="41" t="n">
@@ -6001,6 +6096,9 @@
         <v>1</v>
       </c>
       <c r="I10" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6009,16 +6107,16 @@
         <v>20</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="38" t="s">
         <v>56</v>
       </c>
+      <c r="C11" s="44" t="s">
+        <v>57</v>
+      </c>
       <c r="D11" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="41" t="n">
@@ -6028,6 +6126,9 @@
         <v>1</v>
       </c>
       <c r="I11" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6036,16 +6137,16 @@
         <v>20</v>
       </c>
       <c r="B12" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>59</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>58</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="41" t="n">
@@ -6057,22 +6158,25 @@
       <c r="I12" s="41" t="n">
         <v>1</v>
       </c>
+      <c r="J12" s="41" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="44" t="s">
         <v>62</v>
       </c>
+      <c r="C13" s="45" t="s">
+        <v>63</v>
+      </c>
       <c r="D13" s="39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="41" t="n">
@@ -6082,6 +6186,9 @@
         <v>1</v>
       </c>
       <c r="I13" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6090,16 +6197,16 @@
         <v>20</v>
       </c>
       <c r="B14" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="44" t="n">
+        <v>201513614</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="43" t="n">
-        <v>201513614</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>63</v>
-      </c>
       <c r="E14" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="41" t="n">
@@ -6109,6 +6216,9 @@
         <v>1</v>
       </c>
       <c r="I14" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6117,16 +6227,16 @@
         <v>20</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="38" t="s">
         <v>66</v>
       </c>
+      <c r="C15" s="44" t="s">
+        <v>67</v>
+      </c>
       <c r="D15" s="39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="41" t="n">
@@ -6136,6 +6246,9 @@
         <v>1</v>
       </c>
       <c r="I15" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6144,16 +6257,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="C16" s="44" t="s">
         <v>71</v>
       </c>
+      <c r="D16" s="46" t="s">
+        <v>72</v>
+      </c>
       <c r="E16" s="39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="41" t="n">
@@ -6163,6 +6276,9 @@
         <v>1</v>
       </c>
       <c r="I16" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6170,34 +6286,34 @@
       <c r="A17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="50" t="n">
+      <c r="F17" s="50"/>
+      <c r="G17" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="41" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H17"/>
-  <mergeCells count="1">
-    <mergeCell ref="G1:I1"/>
-  </mergeCells>
+  <autoFilter ref="A2:G17"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6217,21 +6333,21 @@
   </sheetPr>
   <dimension ref="A1:AMF65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="51" width="57.9514170040486"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="22" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1020" min="9" style="22" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="11.0202429149798"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="51" width="59.3724696356275"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="30.3562753036437"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="11.8744939271255"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="22" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1020" min="9" style="22" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6246,7 +6362,7 @@
       </c>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
-      <c r="J1" s="0"/>
+      <c r="J1" s="27"/>
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
       <c r="M1" s="0"/>
@@ -7275,18 +7391,20 @@
         <v>29</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="0"/>
+      <c r="J2" s="35" t="s">
+        <v>36</v>
+      </c>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
@@ -8299,32 +8417,34 @@
       <c r="AMF2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60" t="n">
+      <c r="F3" s="58"/>
+      <c r="G3" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="61" t="n">
+      <c r="H3" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="61" t="n">
+      <c r="I3" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="0"/>
+      <c r="J3" s="59" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
@@ -9337,245 +9457,272 @@
       <c r="AMF3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63" t="n">
+      <c r="E4" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="64" t="n">
+      <c r="H4" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="64" t="n">
+      <c r="I4" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63" t="n">
+      <c r="F5" s="62"/>
+      <c r="G5" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="64" t="n">
+      <c r="H5" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="64" t="n">
+      <c r="I5" s="61" t="n">
         <v>0</v>
       </c>
+      <c r="J5" s="61" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="64" t="n">
+      <c r="E6" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="66" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58" t="s">
+    <row r="7" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="64" t="n">
+      <c r="F7" s="62"/>
+      <c r="G7" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="61" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="s">
+    <row r="8" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="64" t="n">
+      <c r="E8" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="58"/>
+      <c r="G8" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="66" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="s">
+    <row r="9" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="64" t="n">
+        <v>82</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="65" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="43" t="n">
+        <v>65</v>
+      </c>
+      <c r="E10" s="44" t="n">
         <v>201513614</v>
       </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="70" t="n">
+      <c r="F10" s="62"/>
+      <c r="G10" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="65" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="72" t="n">
+      <c r="F11" s="58"/>
+      <c r="G11" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="69" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="31.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="58" t="s">
+    <row r="12" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>71</v>
+      <c r="B12" s="46" t="s">
+        <v>72</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="74" t="n">
+        <v>84</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9598,7 +9745,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -9616,23 +9763,23 @@
     <tabColor rgb="FF7030A0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1021" min="8" style="22" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="26.080971659919"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="37.0931174089069"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="23.5101214574899"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="11.0202429149798"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1021" min="8" style="22" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9641,11 +9788,12 @@
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="55" t="s">
@@ -9663,253 +9811,486 @@
       <c r="E2" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="35" t="s">
         <v>35</v>
       </c>
+      <c r="I2" s="35" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="76" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="71" t="n">
-        <v>1</v>
+      <c r="B5" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="77" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="76" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B8" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="71" t="n">
-        <v>1</v>
+      <c r="F8" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="77" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="76" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="71" t="n">
-        <v>1</v>
+      <c r="B11" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="77" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="71" t="n">
-        <v>1</v>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="77" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="71" t="n">
-        <v>1</v>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="77" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="71" t="n">
-        <v>1</v>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="77" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="71" t="n">
-        <v>1</v>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="77" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="71" t="n">
-        <v>1</v>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="77" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="71" t="n">
-        <v>1</v>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="77" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -9927,24 +10308,24 @@
     <tabColor rgb="FF7030A0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:18"/>
+  <dimension ref="1:21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="22" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="31.0931174089069"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="53.8663967611336"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="26.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="22" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="8.93522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="8.93522267206478"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="22" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9954,12 +10335,12 @@
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="27"/>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="0"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
       <c r="M1" s="0"/>
@@ -10972,35 +11353,37 @@
       <c r="AMF1" s="0"/>
       <c r="AMG1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="83" t="s">
+    <row r="2" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="0"/>
+      <c r="J2" s="35" t="s">
+        <v>36</v>
+      </c>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
@@ -12014,34 +12397,36 @@
       <c r="AMG2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="C3" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="0"/>
+      <c r="E3" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="89" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
@@ -13055,34 +13440,36 @@
       <c r="AMG3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="87" t="n">
+      <c r="F4" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="87" t="n">
+      <c r="G4" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="87" t="n">
+      <c r="H4" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="0"/>
+      <c r="I4" s="89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="89" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
@@ -14096,31 +14483,34 @@
       <c r="AMG4" s="0"/>
     </row>
     <row r="5" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="87" t="n">
+      <c r="D5" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="89" t="n">
         <v>1</v>
       </c>
       <c r="AMH5" s="0"/>
@@ -14128,380 +14518,521 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="87" t="n">
+      <c r="C6" s="86" t="n">
+        <v>3582910032373</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="89" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="87" t="n">
+      <c r="H6" s="89" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="87" t="n">
+      <c r="I6" s="89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="89" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="86" t="n">
+        <v>3582910034988</v>
+      </c>
+      <c r="D7" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="87" t="n">
+      <c r="E7" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="89" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="C8" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="D8" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="87" t="n">
+      <c r="E8" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="89" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="87" t="n">
+      <c r="H8" s="89" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="87" t="n">
+      <c r="I8" s="89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="89" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="86" t="n">
+        <v>201513619</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="87" t="n">
+      <c r="F9" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="89" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="87" t="n">
+      <c r="H9" s="89" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="87" t="n">
+      <c r="I9" s="89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="89" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="86" t="n">
+        <v>201513612</v>
+      </c>
+      <c r="D10" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="87" t="n">
+      <c r="E10" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="89" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="87" t="n">
+      <c r="H10" s="89" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="87" t="n">
+      <c r="I10" s="89" t="n">
         <v>2</v>
       </c>
+      <c r="J10" s="89" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="85" t="s">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="87" t="n">
+      <c r="B11" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="91" t="n">
+        <v>201513613</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="89" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="38" t="s">
+      <c r="B12" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="D12" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="87" t="n">
+      <c r="E12" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="89" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="87" t="n">
+      <c r="H12" s="89" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="87" t="n">
+      <c r="I12" s="89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" s="89" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="72" t="n">
+      <c r="F13" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="72" t="n">
+      <c r="H13" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="72" t="n">
+      <c r="I13" s="69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" s="69" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="86" t="n">
+        <v>201513614</v>
+      </c>
+      <c r="D14" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="72" t="n">
+      <c r="E14" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="93" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="D15" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="72" t="n">
+      <c r="E15" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="72" t="n">
+      <c r="H15" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="I15" s="72" t="n">
+      <c r="I15" s="69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" s="69" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="C16" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="D16" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="72" t="n">
+      <c r="E16" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="72" t="n">
+      <c r="H16" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="72" t="n">
+      <c r="I16" s="69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" s="69" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="74" t="n">
+      <c r="F17" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="101" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="74" t="n">
-        <v>0</v>
+      <c r="A18" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="89" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" s="89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" s="89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" s="69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="86" t="n">
+        <v>3582910032373</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" s="89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="86" t="n">
+        <v>3582910034988</v>
+      </c>
+      <c r="D21" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="89" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G17"/>
+  <autoFilter ref="A2:I17"/>
   <mergeCells count="1">
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14522,19 +15053,19 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="22" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="22" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="38.4412955465587"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="22" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14553,144 +15084,144 @@
       <c r="K1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="52.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="84" t="s">
-        <v>112</v>
+      <c r="D2" s="83" t="s">
+        <v>121</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="89" t="s">
-        <v>118</v>
+      <c r="F2" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="103" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="104" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
+      <c r="A3" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="109"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="94"/>
+      <c r="A4" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="109"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="94"/>
+      <c r="A5" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="109"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
+      <c r="A6" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="109"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="94"/>
+      <c r="A7" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="109"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="94"/>
+      <c r="A8" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="109"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="94"/>
+      <c r="A9" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="109"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G9"/>

--- a/Projects/SANOFISA/Data/Template.xlsx
+++ b/Projects/SANOFISA/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -137,6 +137,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="J2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Indicate 1 for MSL / indicate 0 if not in MSL
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -212,6 +227,21 @@
       </text>
     </comment>
     <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Indicate 1 for MSL / indicate 0 if not in MSL
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="81">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -777,6 +807,18 @@
     <t xml:space="preserve">CAT4</t>
   </si>
   <si>
+    <t xml:space="preserve">CAT1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT4.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">DULCOLAXSUCTA/ 30/5MG BLI KSA</t>
   </si>
   <si>
@@ -865,18 +907,6 @@
   </si>
   <si>
     <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT4.1</t>
   </si>
   <si>
     <t xml:space="preserve">PHARMATON SECONDARY</t>
@@ -1236,7 +1266,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1357,10 +1387,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="18" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1423,10 +1449,6 @@
     </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1621,20 +1643,20 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="1" sqref="J2:M2 I9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4655870445344"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3441295546559"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3036437246964"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2591093117409"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6882591093117"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1943319838057"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7975708502024"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8097165991903"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.080971659919"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1891,21 +1913,21 @@
   </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="J2:M2 A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M32" activeCellId="0" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="49.8259109311741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="17.3805668016194"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="13" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="9.06072874493927"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="22.1578947368421"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="14" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="52.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.2591093117409"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="13" width="12.4817813765182"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="14" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1920,9 +1942,12 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
+      <c r="J1" s="0"/>
       <c r="K1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1950,23 +1975,34 @@
       <c r="I2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="0"/>
+      <c r="J2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" s="24" t="n">
         <v>1</v>
@@ -1998,16 +2034,16 @@
         <v>23</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C4" s="21" t="n">
         <v>3582910032373</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F4" s="24" t="n">
         <v>1</v>
@@ -2039,16 +2075,16 @@
         <v>23</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" s="21" t="n">
         <v>3582910034988</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F5" s="24" t="n">
         <v>1</v>
@@ -2080,16 +2116,16 @@
         <v>23</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F6" s="24" t="n">
         <v>1</v>
@@ -2121,16 +2157,16 @@
         <v>23</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C7" s="21" t="n">
         <v>201513619</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F7" s="24" t="n">
         <v>1</v>
@@ -2162,16 +2198,16 @@
         <v>23</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F8" s="24" t="n">
         <v>1</v>
@@ -2203,16 +2239,16 @@
         <v>23</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F9" s="24" t="n">
         <v>0</v>
@@ -2244,16 +2280,16 @@
         <v>23</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F10" s="24" t="n">
         <v>1</v>
@@ -2285,16 +2321,16 @@
         <v>23</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F11" s="24" t="n">
         <v>1</v>
@@ -2326,16 +2362,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F12" s="24" t="n">
         <v>1</v>
@@ -2382,37 +2418,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="1" sqref="J2:M2 D22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="25.336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="28" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="28" width="31.3441295546559"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="28" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="29" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="30" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="28" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="28" width="32.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="28" width="11.6315789473684"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="29" width="11.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="14" width="9.30364372469636"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2423,7 +2459,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>32</v>
@@ -2440,14 +2476,26 @@
       <c r="I2" s="18" t="s">
         <v>38</v>
       </c>
+      <c r="J2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="13"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -2455,36 +2503,36 @@
       <c r="I3" s="24"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
@@ -2512,34 +2560,38 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:M2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="21.0607287449393"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="21.0607287449393"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="49.2186234817814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="34.6437246963563"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="38" width="10.4048582995951"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="39" width="10.4048582995951"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="39" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="37" width="21.914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="20.6882591093117"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="37" width="21.914979757085"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="51.5384615384615"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="36.3643724696356"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="37" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="38" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="38" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="32" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
@@ -2570,526 +2622,526 @@
         <v>38</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>41</v>
+      <c r="B3" s="41" t="s">
+        <v>45</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4" s="21" t="n">
         <v>3582910032373</v>
       </c>
-      <c r="F4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="44" t="n">
+      <c r="F4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E5" s="21" t="n">
         <v>3582910034988</v>
       </c>
-      <c r="F5" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="44" t="n">
+      <c r="F5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="44" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E7" s="21" t="n">
         <v>201513619</v>
       </c>
-      <c r="F7" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="44" t="n">
+      <c r="F7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="44" t="n">
+        <v>56</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="44" t="n">
+        <v>62</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="44" t="n">
+        <v>67</v>
+      </c>
+      <c r="F10" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="44" t="n">
+        <v>71</v>
+      </c>
+      <c r="F11" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3111,22 +3163,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:M2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="47" width="28.7732793522267"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="48" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="30.3562753036437"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="28" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="29" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="49" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="30.1133603238866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="34.1578947368421"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="31.82995951417"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="27.9068825910931"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="20.1943319838057"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="28" width="11.6315789473684"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="29" width="11.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="47" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3135,27 +3187,31 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="50" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="48" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
@@ -3171,179 +3227,179 @@
         <v>38</v>
       </c>
       <c r="J2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="54" t="n">
+      <c r="F6" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,6 +3409,7 @@
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:I1"/>
@@ -3381,49 +3438,53 @@
   </sheetPr>
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:M2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="57" width="31.4655870445344"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="57" width="43.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="57" width="19.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="57" width="17.6234817813765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="57" width="16.6477732793522"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="58" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="59" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="60" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="55" width="33.0485829959514"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="55" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="55" width="20.0728744939271"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="55" width="18.3684210526316"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="55" width="17.3805668016194"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="56" width="9.78947368421053"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="57" width="9.78947368421053"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="58" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="61"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="32" t="s">
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="48" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
@@ -3439,847 +3500,847 @@
         <v>38</v>
       </c>
       <c r="J2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="63" t="n">
+        <v>3582910032373</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="63" t="n">
+        <v>3582910034988</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" s="66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="63" t="n">
+        <v>201513619</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="F11" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="C12" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="65" t="n">
-        <v>3582910032373</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="65" t="n">
-        <v>3582910034988</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" s="68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="64" t="s">
+      <c r="D12" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="65" t="n">
+      <c r="C14" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="63" t="n">
         <v>201513619</v>
       </c>
-      <c r="D7" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" s="68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="65" t="s">
+      <c r="D15" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" s="68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="64" t="s">
+      <c r="F15" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C16" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="65" t="n">
-        <v>201513619</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="74" t="n">
+      <c r="D16" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="72" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="56"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H69" s="58"/>
-      <c r="I69" s="58"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H70" s="58"/>
-      <c r="I70" s="58"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H73" s="58"/>
-      <c r="I73" s="58"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H76" s="58"/>
-      <c r="I76" s="58"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H77" s="58"/>
-      <c r="I77" s="58"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H78" s="58"/>
-      <c r="I78" s="58"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H80" s="58"/>
-      <c r="I80" s="58"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Projects/SANOFISA/Data/Template.xlsx
+++ b/Projects/SANOFISA/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -137,21 +137,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">Indicate 1 for MSL / indicate 0 if not in MSL
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -227,21 +212,6 @@
       </text>
     </comment>
     <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">Indicate 1 for MSL / indicate 0 if not in MSL
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -688,7 +658,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="79">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -807,16 +777,7 @@
     <t xml:space="preserve">CAT4</t>
   </si>
   <si>
-    <t xml:space="preserve">CAT1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT4.1</t>
+    <t xml:space="preserve">CAT5</t>
   </si>
   <si>
     <t xml:space="preserve">DULCOLAXSUCTA/ 30/5MG BLI KSA</t>
@@ -849,7 +810,7 @@
     <t xml:space="preserve">Mucosolvan</t>
   </si>
   <si>
-    <t xml:space="preserve">Cough and Cold </t>
+    <t xml:space="preserve">Cough and Cold</t>
   </si>
   <si>
     <t xml:space="preserve">Bronchicare Plus 1.5 gm Syrup 150 ml</t>
@@ -931,6 +892,9 @@
   </si>
   <si>
     <t xml:space="preserve">TEL_SECOND_18_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cough &amp; Cold</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1223,6 +1187,20 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -1266,7 +1244,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="85">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1323,6 +1301,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1331,7 +1313,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1343,6 +1329,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1367,18 +1361,30 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1387,14 +1393,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="18" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1419,6 +1425,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1435,6 +1445,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1443,12 +1457,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1520,15 +1542,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1536,14 +1558,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1555,11 +1577,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1643,20 +1665,20 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2591093117409"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6882591093117"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1943319838057"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7975708502024"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8097165991903"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.080971659919"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,492 +1933,420 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M32" activeCellId="0" sqref="M32"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="52.2753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.2591093117409"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="13" width="12.4817813765182"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="14" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="48.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="13" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="14" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="15" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="15" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
       <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="C3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="D3" s="26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="E3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B4" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="25" t="n">
+        <v>3582910032373</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="F4" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="25" t="n">
+        <v>3582910034988</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+      <c r="E5" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="21" t="n">
-        <v>3582910032373</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="C6" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+      <c r="D6" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="21" t="n">
-        <v>3582910034988</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+      <c r="B7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="25" t="n">
+        <v>201513619</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+      <c r="C8" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="21" t="n">
-        <v>201513619</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="B9" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
+      <c r="E9" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+      <c r="C10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
+      <c r="B11" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="B12" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="E12" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2404,7 +2354,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2418,125 +2368,108 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="28" width="22.4008097165992"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="28" width="32.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="22.4008097165992"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="28" width="11.6315789473684"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="29" width="11.6315789473684"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="14" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="35" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="35" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="36" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="37" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31" t="s">
+    <row r="1" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2558,594 +2491,568 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="37" width="21.914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="20.6882591093117"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="37" width="21.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="51.5384615384615"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="36.3643724696356"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="37" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="38" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="38" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="45" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="44" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="46" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="46" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="31" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="18" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="E3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
+      <c r="F3" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C4" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="25" t="n">
+        <v>3582910032373</v>
+      </c>
+      <c r="F4" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
+      <c r="E5" s="25" t="n">
+        <v>3582910034988</v>
+      </c>
+      <c r="F5" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B6" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="21" t="n">
-        <v>3582910032373</v>
-      </c>
-      <c r="F4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
+      <c r="F6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="21" t="n">
-        <v>3582910034988</v>
-      </c>
-      <c r="F5" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
+      <c r="B7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="25" t="n">
+        <v>201513619</v>
+      </c>
+      <c r="F7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="B8" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
+      <c r="E8" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="21" t="n">
-        <v>201513619</v>
-      </c>
-      <c r="F7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="s">
+      <c r="C9" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="B10" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="s">
+      <c r="E10" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B11" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="F11" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="27" t="s">
+      <c r="C12" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="F12" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3163,244 +3070,196 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="30.1133603238866"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="34.1578947368421"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="31.82995951417"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="27.9068825910931"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="20.1943319838057"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="28" width="11.6315789473684"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="29" width="11.6315789473684"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="47" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="56" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="57" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="56" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="57" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="57" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="35" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="36" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="58" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="31" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="48" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="D4" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="s">
+      <c r="C5" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="50" t="s">
+      <c r="B6" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="53" t="s">
+      <c r="C6" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="52" t="n">
-        <v>1</v>
+      <c r="D6" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3409,7 +3268,6 @@
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:I1"/>
@@ -3436,911 +3294,828 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="55" width="33.0485829959514"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="55" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="55" width="20.0728744939271"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="55" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="55" width="17.3805668016194"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="56" width="9.78947368421053"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="57" width="9.78947368421053"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="58" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="66" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="66" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="67" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="67" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="67" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="67" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="68" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="68" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="69" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="31" t="s">
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="60" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="18" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="C3" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="D3" s="75" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61" t="s">
+      <c r="E3" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B4" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="74" t="n">
+        <v>3582910032373</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="64" t="s">
+      <c r="F4" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="74" t="n">
+        <v>3582910034988</v>
+      </c>
+      <c r="D5" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="61" t="s">
+      <c r="E5" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B6" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="63" t="n">
-        <v>3582910032373</v>
-      </c>
-      <c r="D4" s="64" t="s">
+      <c r="C6" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="s">
+      <c r="D6" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B7" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="74" t="n">
+        <v>201513619</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="63" t="n">
-        <v>3582910034988</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="63" t="s">
+      <c r="E14" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="C15" s="74" t="n">
+        <v>201513619</v>
+      </c>
+      <c r="D15" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" s="66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="63" t="n">
-        <v>201513619</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" s="66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" s="66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="63" t="s">
+      <c r="E15" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="C16" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="D16" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="62" t="s">
+      <c r="E16" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="63" t="n">
-        <v>201513619</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="72" t="n">
-        <v>1</v>
+      <c r="F16" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="67"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="67"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="67"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Projects/SANOFISA/Data/Template.xlsx
+++ b/Projects/SANOFISA/Data/Template.xlsx
@@ -888,13 +888,13 @@
     <t xml:space="preserve">CCDUAL_SECOND_18_001</t>
   </si>
   <si>
+    <t xml:space="preserve">COUGH</t>
+  </si>
+  <si>
     <t xml:space="preserve">TELFAST SECONDARY</t>
   </si>
   <si>
     <t xml:space="preserve">TEL_SECOND_18_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cough &amp; Cold</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1244,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1393,10 +1393,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="18" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1467,10 +1463,6 @@
     </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1666,18 +1658,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1943,14 +1935,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="48.9514170040486"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="49.3805668016194"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="9" min="6" style="13" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="14" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="15" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="15" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="15" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2376,21 +2368,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="35" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="35" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="35" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="36" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="37" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="15" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
@@ -2431,10 +2423,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="13"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
@@ -2442,30 +2434,30 @@
       <c r="I3" s="28"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -2499,22 +2491,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="45" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="44" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="46" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="46" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="43" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="45" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="45" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
@@ -2556,45 +2548,45 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="52" t="n">
+      <c r="F3" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="49" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -2603,30 +2595,30 @@
       <c r="E4" s="25" t="n">
         <v>3582910032373</v>
       </c>
-      <c r="F4" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="52" t="n">
+      <c r="F4" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="24" t="s">
@@ -2635,62 +2627,62 @@
       <c r="E5" s="25" t="n">
         <v>3582910034988</v>
       </c>
-      <c r="F5" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="52" t="n">
+      <c r="F5" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="52" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="52" t="n">
+      <c r="F6" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="52" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="24" t="s">
@@ -2699,62 +2691,62 @@
       <c r="E7" s="25" t="n">
         <v>201513619</v>
       </c>
-      <c r="F7" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="52" t="n">
+      <c r="F7" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="52" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="52" t="n">
+      <c r="F8" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -2763,62 +2755,62 @@
       <c r="E9" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="52" t="n">
+      <c r="F9" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="52" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="52" t="n">
+      <c r="F10" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="52" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="24" t="s">
@@ -2827,30 +2819,30 @@
       <c r="E11" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="52" t="n">
+      <c r="F11" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>66</v>
       </c>
       <c r="D12" s="24" t="s">
@@ -2859,196 +2851,196 @@
       <c r="E12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="52" t="n">
+      <c r="F12" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3073,19 +3065,19 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="56" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="57" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="56" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="57" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="57" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="55" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="55" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="55" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="35" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="36" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="58" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="56" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3103,19 +3095,19 @@
       <c r="J1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59" t="s">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="57" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="20" t="s">
@@ -3135,130 +3127,130 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="63" t="n">
+      <c r="F3" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="63" t="n">
+      <c r="F4" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="61" t="s">
+      <c r="D5" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="63" t="n">
+      <c r="F5" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="C6" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="63" t="n">
+      <c r="F6" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3297,28 +3289,28 @@
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="66" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="66" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="67" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="67" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="67" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="67" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="68" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="68" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="69" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="64" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="64" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="65" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="65" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="65" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="65" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="66" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="66" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="67" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
@@ -3328,19 +3320,19 @@
       <c r="J1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="57" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="20" t="s">
@@ -3360,762 +3352,762 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="77" t="n">
+      <c r="F3" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="75" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="74" t="n">
+      <c r="C4" s="72" t="n">
         <v>3582910032373</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="77" t="n">
+      <c r="F4" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="74" t="n">
+      <c r="C5" s="72" t="n">
         <v>3582910034988</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="77" t="n">
+      <c r="F5" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="77" t="n">
+      <c r="E6" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="77" t="n">
+      <c r="G6" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="77" t="n">
+      <c r="H6" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="77" t="n">
+      <c r="I6" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="75" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="74" t="n">
+      <c r="C7" s="72" t="n">
         <v>201513619</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="77" t="n">
+      <c r="E7" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="77" t="n">
+      <c r="G7" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="77" t="n">
+      <c r="H7" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="77" t="n">
+      <c r="I7" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="77" t="n">
+      <c r="F8" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="77" t="n">
+      <c r="G8" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="77" t="n">
+      <c r="H8" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="77" t="n">
+      <c r="I8" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="75" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="77" t="n">
+      <c r="F9" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="77" t="n">
+      <c r="F10" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="75" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="77" t="n">
+      <c r="F11" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="75" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="79" t="n">
+      <c r="F12" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="82" t="n">
+      <c r="F13" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="82" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="82" t="n">
+      <c r="E14" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="74" t="n">
+      <c r="C15" s="72" t="n">
         <v>201513619</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="83" t="n">
+      <c r="E15" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="84" t="n">
+      <c r="F16" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H67" s="67"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H68" s="67"/>
-      <c r="I68" s="67"/>
-      <c r="J68" s="67"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H71" s="67"/>
-      <c r="I71" s="67"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H72" s="67"/>
-      <c r="I72" s="67"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="65"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="65"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H77" s="67"/>
-      <c r="I77" s="67"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="65"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="65"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H79" s="67"/>
-      <c r="I79" s="67"/>
+      <c r="H79" s="65"/>
+      <c r="I79" s="65"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H80" s="67"/>
-      <c r="I80" s="67"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Projects/SANOFISA/Data/Template.xlsx
+++ b/Projects/SANOFISA/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -658,7 +658,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="79">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -907,7 +907,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1037,19 +1037,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -1088,6 +1075,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1164,7 +1158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1201,13 +1195,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -1244,7 +1231,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1433,38 +1420,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1473,19 +1428,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1493,39 +1448,39 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="23" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="24" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1533,7 +1488,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1541,7 +1496,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1553,11 +1508,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1565,15 +1520,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1657,19 +1612,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1935,14 +1890,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="49.3805668016194"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="49.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="9" min="6" style="13" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="14" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="15" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="15" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="15" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2368,10 +2323,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="35" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="35" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="35" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="36" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="15" width="8.89068825910931"/>
@@ -2389,6 +2344,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
+      <c r="J1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
@@ -2483,19 +2439,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="43" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="45" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="45" width="8.89068825910931"/>
@@ -2547,500 +2503,180 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="25" t="n">
-        <v>3582910032373</v>
-      </c>
-      <c r="F4" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="25" t="n">
-        <v>3582910034988</v>
-      </c>
-      <c r="F5" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="25" t="n">
-        <v>201513619</v>
-      </c>
-      <c r="F7" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H14" s="43"/>
       <c r="I14" s="43"/>
       <c r="J14" s="43"/>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
       <c r="J18" s="43"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H20" s="43"/>
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
       <c r="J22" s="43"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
       <c r="J23" s="43"/>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H24" s="43"/>
       <c r="I24" s="43"/>
       <c r="J24" s="43"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H25" s="43"/>
       <c r="I25" s="43"/>
       <c r="J25" s="43"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H26" s="43"/>
       <c r="I26" s="43"/>
       <c r="J26" s="43"/>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H27" s="43"/>
       <c r="I27" s="43"/>
       <c r="J27" s="43"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
       <c r="J28" s="43"/>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H29" s="43"/>
       <c r="I29" s="43"/>
       <c r="J29" s="43"/>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
       <c r="J30" s="43"/>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H31" s="43"/>
       <c r="I31" s="43"/>
       <c r="J31" s="43"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H32" s="43"/>
       <c r="I32" s="43"/>
       <c r="J32" s="43"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
       <c r="J33" s="43"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
       <c r="J34" s="43"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H35" s="43"/>
       <c r="I35" s="43"/>
       <c r="J35" s="43"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H36" s="43"/>
       <c r="I36" s="43"/>
       <c r="J36" s="43"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H37" s="43"/>
       <c r="I37" s="43"/>
       <c r="J37" s="43"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3070,14 +2706,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="55" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="55" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="55" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="47" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="35" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="36" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="56" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="48" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3095,19 +2731,19 @@
       <c r="J1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="57" t="s">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="49" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="20" t="s">
@@ -3127,130 +2763,130 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="61" t="n">
+      <c r="F3" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="61" t="n">
+      <c r="F4" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="61" t="n">
+      <c r="F5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="61" t="n">
+      <c r="F6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,23 +2930,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="64" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="64" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="65" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="65" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="65" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="65" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="66" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="66" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="67" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="56" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="56" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="57" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="57" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="57" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="57" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="58" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="58" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="59" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
@@ -3320,19 +2956,19 @@
       <c r="J1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="69" t="s">
+      <c r="A2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="49" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="20" t="s">
@@ -3352,762 +2988,762 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="75" t="n">
+      <c r="F3" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="72" t="n">
+      <c r="C4" s="64" t="n">
         <v>3582910032373</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="75" t="n">
+      <c r="F4" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="72" t="n">
+      <c r="C5" s="64" t="n">
         <v>3582910034988</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="75" t="n">
+      <c r="F5" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="75" t="n">
+      <c r="F6" s="67" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="75" t="n">
+      <c r="G6" s="67" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="75" t="n">
+      <c r="H6" s="67" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="75" t="n">
+      <c r="I6" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="72" t="n">
+      <c r="C7" s="64" t="n">
         <v>201513619</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="75" t="n">
+      <c r="F7" s="67" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="75" t="n">
+      <c r="G7" s="67" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="75" t="n">
+      <c r="H7" s="67" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="75" t="n">
+      <c r="I7" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="75" t="n">
+      <c r="F8" s="67" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="75" t="n">
+      <c r="G8" s="67" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="75" t="n">
+      <c r="H8" s="67" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="75" t="n">
+      <c r="I8" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="75" t="n">
+      <c r="F9" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="75" t="n">
+      <c r="F10" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="75" t="n">
+      <c r="F11" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="77" t="n">
+      <c r="F12" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="80" t="n">
+      <c r="F13" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="80" t="n">
+      <c r="F14" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="72" t="n">
+      <c r="C15" s="64" t="n">
         <v>201513619</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="81" t="n">
+      <c r="F15" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="82" t="n">
+      <c r="F16" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="65"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="65"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H65" s="65"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="65"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="65"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="65"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="65"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H69" s="65"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="65"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H70" s="65"/>
-      <c r="I70" s="65"/>
-      <c r="J70" s="65"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="57"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H72" s="65"/>
-      <c r="I72" s="65"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H73" s="65"/>
-      <c r="I73" s="65"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H78" s="65"/>
-      <c r="I78" s="65"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H80" s="65"/>
-      <c r="I80" s="65"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Projects/SANOFISA/Data/Template.xlsx
+++ b/Projects/SANOFISA/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -1158,7 +1158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1171,6 +1171,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1288,6 +1295,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1300,7 +1311,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1316,7 +1331,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1348,15 +1363,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1364,11 +1379,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1384,24 +1395,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1424,11 +1419,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1444,7 +1451,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1512,7 +1519,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1618,14 +1625,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7651821862348"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.080971659919"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4655870445344"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.587044534413"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,415 +1892,415 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topRight" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="13" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="14" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="15" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="15" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.82995951417"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="50.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.7651821862348"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.3684210526316"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="17.753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="13" width="11.8744939271255"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="15" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="16" width="22.6437246963563"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="16" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+      <c r="F3" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="27" t="n">
         <v>3582910032373</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
+      <c r="F4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="25" t="n">
+      <c r="C5" s="27" t="n">
         <v>3582910034988</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
+      <c r="F5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+      <c r="F6" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="25" t="n">
+      <c r="C7" s="27" t="n">
         <v>201513619</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
+      <c r="F7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
+      <c r="F8" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
+      <c r="F9" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
+      <c r="F10" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
+      <c r="F11" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
+      <c r="F12" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2315,110 +2322,88 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="35" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="35" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="36" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="15" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="25.82995951417"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="36" width="21.914979757085"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="32.0728744939271"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="21.914979757085"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="36" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="37" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="16" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="17" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
+    <row r="1048558" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:I1"/>
@@ -2441,242 +2426,242 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="49.2753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="43" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="45" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="45" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="21.3036437246964"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="20.1943319838057"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="41" width="21.3036437246964"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="50.4372469635628"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="35.6194331983806"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="40" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="42" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="42" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="17" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2698,71 +2683,72 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="47" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="35" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="36" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="48" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="29.3805668016194"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="30.9716599190283"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="27.2995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="19.4655870445344"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="36" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="37" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="45" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="46" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="49" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="50" t="s">
         <v>20</v>
       </c>
@@ -2794,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
@@ -2826,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="50" t="s">
         <v>20</v>
       </c>
@@ -2858,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="50" t="s">
         <v>20</v>
       </c>
@@ -2890,12 +2876,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:I1"/>
@@ -2925,20 +2905,20 @@
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="56" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="56" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="57" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="57" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="57" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="57" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="58" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="58" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="59" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="56" width="32.1983805668016"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="56" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="57" width="19.3441295546559"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="57" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="57" width="28.4008097165992"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="57" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="58" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="58" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="59" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2947,12 +2927,12 @@
       <c r="C1" s="60"/>
       <c r="D1" s="60"/>
       <c r="E1" s="60"/>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,29 +2945,29 @@
       <c r="C2" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="62" t="s">
         <v>12</v>
       </c>
@@ -3019,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="62" t="s">
         <v>12</v>
       </c>
@@ -3051,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
@@ -3083,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="62" t="s">
         <v>12</v>
       </c>
@@ -3115,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="62" t="s">
         <v>12</v>
       </c>
@@ -3147,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="62" t="s">
         <v>12</v>
       </c>
@@ -3179,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="62" t="s">
         <v>12</v>
       </c>
@@ -3211,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="62" t="s">
         <v>12</v>
       </c>
@@ -3243,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="62" t="s">
         <v>12</v>
       </c>
@@ -3275,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="62" t="s">
         <v>12</v>
       </c>
@@ -3307,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="70" t="s">
         <v>22</v>
       </c>
@@ -3339,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="70" t="s">
         <v>22</v>
       </c>
@@ -3371,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="70" t="s">
         <v>22</v>
       </c>
@@ -3403,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="70" t="s">
         <v>22</v>
       </c>
